--- a/PhoenixBot_BOM.xlsx
+++ b/PhoenixBot_BOM.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoahL\AppData\Roaming\SPB_Data\phoenixbot-arduino-shield\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan Orabutt\Documents\GitHub\phoenixbot-arduino-shield\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{9C07C5B2-94B7-4A9A-85DE-C7278138AD9F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Component</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Reason</t>
-  </si>
-  <si>
     <t>Unit Cost</t>
   </si>
   <si>
@@ -50,12 +47,6 @@
     <t>Fuse</t>
   </si>
   <si>
-    <t>PhoenixBot Shield</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/littelfuse-inc/16R1000GMR/F5543CT-ND/3306990</t>
-  </si>
-  <si>
     <t>16R1000GMR</t>
   </si>
   <si>
@@ -81,17 +72,107 @@
   </si>
   <si>
     <t>12-contact solenoid</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/samtec-inc/SSQ-118-03-T-D/SAM1204-18-ND/1111842</t>
+  </si>
+  <si>
+    <t>Stacking Header 2x18</t>
+  </si>
+  <si>
+    <t>SAM1204-18-ND</t>
+  </si>
+  <si>
+    <t>SAM1204-03-ND</t>
+  </si>
+  <si>
+    <t>ICSP</t>
+  </si>
+  <si>
+    <t>SAM8866-ND</t>
+  </si>
+  <si>
+    <t>Stacking Header 1x8</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/samtec-inc/SSW-108-03-T-S/SAM8866-ND/1790200</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?keywords=SAM1204-03-ND</t>
+  </si>
+  <si>
+    <t>SAM10010-ND</t>
+  </si>
+  <si>
+    <t>Stacking Header 1x10</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/samtec-inc/SSQ-110-03-F-S/SAM10010-ND/6678747</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/sullins-connector-solutions/PREC020SAAN-RC/S1012EC-20-ND/2774834</t>
+  </si>
+  <si>
+    <t>S1012EC-20-ND</t>
+  </si>
+  <si>
+    <t>Male Pin Header 1x40</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en/discrete-semiconductor-products/diodes-rectifiers-single/280?k=SMC%20Diode%20Solutions%20MBRF2045</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/alpha-omega-semiconductor-inc/AOT2618L/785-1438-5-ND/3603378</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?mpart=1935161&amp;v=277</t>
+  </si>
+  <si>
+    <t>B340-FDICT-ND</t>
+  </si>
+  <si>
+    <t>Reverse Polarity Diode</t>
+  </si>
+  <si>
+    <t>160-1423-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/lite-on-inc/LTST-C171GKT/160-1423-1-ND/386792</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?keywords=B340-FDICT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0805JT300R/RMCF0805JT300RCT-ND/5049826</t>
+  </si>
+  <si>
+    <t>Resistor, 300 Ohm x100</t>
+  </si>
+  <si>
+    <t>LED, Green x25</t>
+  </si>
+  <si>
+    <t>RMCF0805JT300RCT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/product-detail/en/phoenix-contact/1935268/277-1587-ND/568624 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/product-detail/en/littelfuse-inc/16R1000GMR/F5543CT-ND/3306990 </t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,18 +189,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -140,21 +236,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,24 +568,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC180252-C29C-4723-A5A3-BED8D416B34A}">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="103.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15" style="3" customWidth="1"/>
+    <col min="4" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="103.5703125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,200 +604,427 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <f>C2*D2</f>
+        <v>0.9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E45" si="0">C3*D3</f>
+        <v>0.74</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>6.24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>2.09</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.92</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>1.92</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>5.05</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.61</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>1.61</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.318</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>3.18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5.18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.04</v>
-      </c>
-      <c r="E4">
+      <c r="C12" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="D12" s="3">
         <v>6</v>
       </c>
-      <c r="F4" s="6">
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="E5">
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>2.34</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3.89</v>
+      </c>
+      <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="6">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2.09</v>
-      </c>
-      <c r="E6">
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>3.89</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.67</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+      <c r="D16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="10">
+        <f>SUM(E2:E14)</f>
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="4"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="4"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="4"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="4"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="4"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="4"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="4"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="4"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="4"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="4"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="4"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="4"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="4"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="4"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="4"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="4"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="4"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="4"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="4"/>
+      <c r="E45" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="F4" r:id="rId4"/>
+    <hyperlink ref="F5" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId14"/>
 </worksheet>
 </file>